--- a/Config/Login.xlsx
+++ b/Config/Login.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="225" windowWidth="14805" windowHeight="7890"/>
+    <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="URL" sheetId="2" r:id="rId1"/>
-    <sheet name="SUT" sheetId="3" r:id="rId2"/>
+    <sheet name="M2M_Staging" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -38,21 +38,12 @@
     <t>Yes</t>
   </si>
   <si>
-    <t>SUT</t>
-  </si>
-  <si>
     <t>TypeOfUser</t>
   </si>
   <si>
     <t>Admin</t>
   </si>
   <si>
-    <t>Lavanya</t>
-  </si>
-  <si>
-    <t>Auto!1111</t>
-  </si>
-  <si>
     <t>1111</t>
   </si>
   <si>
@@ -60,6 +51,15 @@
   </si>
   <si>
     <t>https://m2mportal-stage.vodafone.com/</t>
+  </si>
+  <si>
+    <t>M2M_Staging</t>
+  </si>
+  <si>
+    <t>aditya.kumar@aricent.com</t>
+  </si>
+  <si>
+    <t>Portal1*</t>
   </si>
 </sst>
 </file>
@@ -421,12 +421,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="60.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
@@ -444,10 +445,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>6</v>
@@ -455,7 +456,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -471,19 +472,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" customWidth="1"/>
     <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s">
         <v>2</v>
@@ -497,19 +498,23 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="B2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="C2" r:id="rId2" display="Aug@2017"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Config/Login.xlsx
+++ b/Config/Login.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usha\PycharmProjects\M2MAutomation2\Config\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="285" windowWidth="14805" windowHeight="7830" activeTab="1"/>
   </bookViews>
@@ -56,10 +61,10 @@
     <t>M2M_Staging</t>
   </si>
   <si>
-    <t>aditya.kumar@aricent.com</t>
-  </si>
-  <si>
-    <t>Portal1*</t>
+    <t>lavanya.parameswaran@slr-consultants.com</t>
+  </si>
+  <si>
+    <t>Aug@2017</t>
   </si>
 </sst>
 </file>
@@ -128,6 +133,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -175,7 +183,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -210,7 +218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -422,7 +430,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -473,7 +481,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -513,7 +521,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="C2" r:id="rId2" display="Aug@2017"/>
+    <hyperlink ref="C2" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
